--- a/Ruggeri et al 2022_country.xlsx
+++ b/Ruggeri et al 2022_country.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sakshighai/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sakshighai/Desktop/Recent/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{934C30D7-D2DA-BB40-B7CB-BBBBE8485090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880D37E5-0DA3-3B48-AA26-BAEB699F91AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16040" xr2:uid="{5C45B897-5B30-3B48-A5F1-53FE7C634B43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$62</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -625,7 +628,7 @@
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B62"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1127,6 +1130,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B62" xr:uid="{B1FFC286-A7AF-614D-92E2-65DD5F2BD3AB}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>